--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3786.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3786.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.852126095542142</v>
+        <v>3.779705762863159</v>
       </c>
       <c r="B1">
-        <v>2.380995093842631</v>
+        <v>3.573288679122925</v>
       </c>
       <c r="C1">
-        <v>2.573514187080002</v>
+        <v>2.695905447006226</v>
       </c>
       <c r="D1">
-        <v>3.069073304953397</v>
+        <v>2.560572147369385</v>
       </c>
       <c r="E1">
-        <v>3.372060266700462</v>
+        <v>2.600834369659424</v>
       </c>
     </row>
   </sheetData>
